--- a/database/industries/ghaza/ghegorji/cashflow/quarterly.xlsx
+++ b/database/industries/ghaza/ghegorji/cashflow/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegorji\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563F4F5C-A19A-4F20-8910-A77A0919D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC92D39-EF0C-4394-B9A3-CECE863EB737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غگرجی-بیسکویت‌  گرجی‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-05-19 (3)</t>
-  </si>
-  <si>
-    <t>1400-08-12 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-25 (2)</t>
-  </si>
-  <si>
-    <t>1401-03-12 (9)</t>
-  </si>
-  <si>
-    <t>1401-04-30 (3)</t>
-  </si>
-  <si>
-    <t>1401-08-26 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-25</t>
-  </si>
-  <si>
-    <t>1401-08-26 (5)</t>
+    <t>1401-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
     <t>1401-08-26 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,14 +700,12 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,13 +713,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,13 +724,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -777,13 +735,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -791,13 +744,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -807,13 +755,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -823,13 +766,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -837,13 +775,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -863,59 +796,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -923,15 +826,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -939,51 +837,31 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1921</v>
+        <v>43172</v>
       </c>
       <c r="E12" s="15">
-        <v>232064</v>
+        <v>122910</v>
       </c>
       <c r="F12" s="15">
-        <v>-1739</v>
+        <v>93743</v>
       </c>
       <c r="G12" s="15">
-        <v>30870</v>
+        <v>-75742</v>
       </c>
       <c r="H12" s="15">
-        <v>44067</v>
-      </c>
-      <c r="I12" s="15">
-        <v>54666</v>
-      </c>
-      <c r="J12" s="15">
-        <v>43172</v>
-      </c>
-      <c r="K12" s="15">
-        <v>122910</v>
-      </c>
-      <c r="L12" s="15">
-        <v>93743</v>
-      </c>
-      <c r="M12" s="15">
-        <v>-75742</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>68106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
@@ -996,66 +874,36 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>-944</v>
       </c>
       <c r="H13" s="11">
-        <v>-730</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-9052</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>-944</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>1921</v>
+        <v>43172</v>
       </c>
       <c r="E14" s="17">
-        <v>232064</v>
+        <v>122910</v>
       </c>
       <c r="F14" s="17">
-        <v>-1739</v>
+        <v>93743</v>
       </c>
       <c r="G14" s="17">
-        <v>30870</v>
+        <v>-76686</v>
       </c>
       <c r="H14" s="17">
-        <v>43337</v>
-      </c>
-      <c r="I14" s="17">
-        <v>45614</v>
-      </c>
-      <c r="J14" s="17">
-        <v>43172</v>
-      </c>
-      <c r="K14" s="17">
-        <v>122910</v>
-      </c>
-      <c r="L14" s="17">
-        <v>93743</v>
-      </c>
-      <c r="M14" s="17">
-        <v>-76686</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>68106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1063,22 +911,17 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>32571</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -1089,61 +932,31 @@
       <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="15">
-        <v>4919</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>32571</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-186563</v>
+        <v>-22325</v>
       </c>
       <c r="E17" s="11">
-        <v>69042</v>
+        <v>-304221</v>
       </c>
       <c r="F17" s="11">
-        <v>-7201</v>
+        <v>-7676</v>
       </c>
       <c r="G17" s="11">
-        <v>-256874</v>
+        <v>-29321</v>
       </c>
       <c r="H17" s="11">
-        <v>-12536</v>
-      </c>
-      <c r="I17" s="11">
-        <v>-69922</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-22325</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-304221</v>
-      </c>
-      <c r="L17" s="11">
-        <v>-7676</v>
-      </c>
-      <c r="M17" s="11">
-        <v>-29321</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-11940</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1161,25 +974,10 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1197,25 +995,10 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1228,30 +1011,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>-326</v>
+        <v>-2379</v>
       </c>
       <c r="H20" s="15">
         <v>0</v>
       </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>-2379</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1269,25 +1037,10 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1305,25 +1058,10 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1341,25 +1079,10 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1372,102 +1095,57 @@
         <v>0</v>
       </c>
       <c r="G24" s="15">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
       </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>31421</v>
+        <v>-46575</v>
       </c>
       <c r="E25" s="11">
-        <v>70806</v>
+        <v>617638</v>
       </c>
       <c r="F25" s="11">
-        <v>-102227</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
-        <v>620077</v>
+        <v>14665</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>46575</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>617638</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>14665</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>-402892</v>
       </c>
       <c r="F26" s="15">
-        <v>-88527</v>
+        <v>0</v>
       </c>
       <c r="G26" s="15">
-        <v>-342788</v>
+        <v>0</v>
       </c>
       <c r="H26" s="15">
-        <v>-31711</v>
-      </c>
-      <c r="I26" s="15">
-        <v>-34109</v>
-      </c>
-      <c r="J26" s="15">
-        <v>9000</v>
-      </c>
-      <c r="K26" s="15">
-        <v>-402892</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1485,25 +1163,10 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1521,25 +1184,10 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1557,169 +1205,94 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>50978</v>
       </c>
       <c r="E30" s="15">
-        <v>3577</v>
+        <v>-50978</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>-3577</v>
+        <v>0</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
       </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <v>50978</v>
-      </c>
-      <c r="K30" s="15">
-        <v>-50978</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>170562</v>
+        <v>0</v>
       </c>
       <c r="E31" s="11">
-        <v>-170125</v>
+        <v>2599</v>
       </c>
       <c r="F31" s="11">
-        <v>196345</v>
+        <v>0</v>
       </c>
       <c r="G31" s="11">
-        <v>-189194</v>
+        <v>1569</v>
       </c>
       <c r="H31" s="11">
-        <v>24538</v>
-      </c>
-      <c r="I31" s="11">
-        <v>-24361</v>
-      </c>
-      <c r="J31" s="11">
-        <v>-46575</v>
-      </c>
-      <c r="K31" s="11">
-        <v>2599</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>15420</v>
+        <v>-8922</v>
       </c>
       <c r="E32" s="17">
-        <v>-26700</v>
+        <v>-105283</v>
       </c>
       <c r="F32" s="17">
-        <v>-1610</v>
+        <v>-7676</v>
       </c>
       <c r="G32" s="17">
-        <v>-172717</v>
+        <v>-15466</v>
       </c>
       <c r="H32" s="17">
-        <v>-19709</v>
-      </c>
-      <c r="I32" s="17">
-        <v>-76898</v>
-      </c>
-      <c r="J32" s="17">
-        <v>-8922</v>
-      </c>
-      <c r="K32" s="17">
-        <v>-105283</v>
-      </c>
-      <c r="L32" s="17">
-        <v>-7676</v>
-      </c>
-      <c r="M32" s="17">
-        <v>-15466</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-11940</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>17341</v>
+        <v>34250</v>
       </c>
       <c r="E33" s="19">
-        <v>205364</v>
+        <v>17627</v>
       </c>
       <c r="F33" s="19">
-        <v>-3349</v>
+        <v>86067</v>
       </c>
       <c r="G33" s="19">
-        <v>-141847</v>
+        <v>-92152</v>
       </c>
       <c r="H33" s="19">
-        <v>23628</v>
-      </c>
-      <c r="I33" s="19">
-        <v>-31284</v>
-      </c>
-      <c r="J33" s="19">
-        <v>34250</v>
-      </c>
-      <c r="K33" s="19">
-        <v>17627</v>
-      </c>
-      <c r="L33" s="19">
-        <v>86067</v>
-      </c>
-      <c r="M33" s="19">
-        <v>-92152</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>56166</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1727,87 +1300,52 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
         <v>0</v>
       </c>
       <c r="E35" s="15">
-        <v>4538</v>
+        <v>0</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1825,25 +1363,10 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1861,133 +1384,73 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
         <v>0</v>
       </c>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>114002</v>
       </c>
       <c r="F39" s="15">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>159828</v>
+        <v>98440</v>
       </c>
       <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>62554</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <v>114002</v>
-      </c>
-      <c r="L39" s="15">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15">
-        <v>98440</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14430</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-7621</v>
+        <v>-20000</v>
       </c>
       <c r="E40" s="11">
-        <v>-195148</v>
+        <v>-76566</v>
       </c>
       <c r="F40" s="11">
-        <v>1</v>
+        <v>-75000</v>
       </c>
       <c r="G40" s="11">
-        <v>-308</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>-20000</v>
-      </c>
-      <c r="I40" s="11">
-        <v>-7718</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-20000</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-76566</v>
-      </c>
-      <c r="L40" s="11">
-        <v>-75000</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-65300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-9134</v>
+        <v>-34475</v>
       </c>
       <c r="E41" s="15">
-        <v>-9020</v>
+        <v>28772</v>
       </c>
       <c r="F41" s="15">
-        <v>-91</v>
+        <v>-4087</v>
       </c>
       <c r="G41" s="15">
-        <v>-1844</v>
+        <v>-1587</v>
       </c>
       <c r="H41" s="15">
-        <v>-200</v>
-      </c>
-      <c r="I41" s="15">
-        <v>-2472</v>
-      </c>
-      <c r="J41" s="15">
-        <v>-34475</v>
-      </c>
-      <c r="K41" s="15">
-        <v>28772</v>
-      </c>
-      <c r="L41" s="15">
-        <v>-4087</v>
-      </c>
-      <c r="M41" s="15">
-        <v>-1587</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2005,25 +1468,10 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2041,25 +1489,10 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2077,25 +1510,10 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2113,25 +1531,10 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2149,25 +1552,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2185,25 +1573,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2221,25 +1594,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2257,169 +1615,94 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-2394</v>
+        <v>20470</v>
       </c>
       <c r="E50" s="11">
-        <v>-1088</v>
+        <v>-82419</v>
       </c>
       <c r="F50" s="11">
-        <v>-15343</v>
+        <v>-5385</v>
       </c>
       <c r="G50" s="11">
-        <v>-21865</v>
+        <v>-3714</v>
       </c>
       <c r="H50" s="11">
-        <v>-2000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>-22822</v>
-      </c>
-      <c r="J50" s="11">
-        <v>20470</v>
-      </c>
-      <c r="K50" s="11">
-        <v>-82419</v>
-      </c>
-      <c r="L50" s="11">
-        <v>-5385</v>
-      </c>
-      <c r="M50" s="11">
-        <v>-3714</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-11197</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-21543</v>
+        <v>-34005</v>
       </c>
       <c r="E51" s="17">
-        <v>-198324</v>
+        <v>-16211</v>
       </c>
       <c r="F51" s="17">
-        <v>5567</v>
+        <v>-84472</v>
       </c>
       <c r="G51" s="17">
-        <v>135810</v>
+        <v>93139</v>
       </c>
       <c r="H51" s="17">
-        <v>-22200</v>
-      </c>
-      <c r="I51" s="17">
-        <v>29542</v>
-      </c>
-      <c r="J51" s="17">
-        <v>-34005</v>
-      </c>
-      <c r="K51" s="17">
-        <v>-16211</v>
-      </c>
-      <c r="L51" s="17">
-        <v>-84472</v>
-      </c>
-      <c r="M51" s="17">
-        <v>93139</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-62067</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>-1808</v>
+        <v>245</v>
       </c>
       <c r="E52" s="19">
-        <v>4646</v>
+        <v>1416</v>
       </c>
       <c r="F52" s="19">
-        <v>2218</v>
+        <v>1595</v>
       </c>
       <c r="G52" s="19">
-        <v>-6037</v>
+        <v>987</v>
       </c>
       <c r="H52" s="19">
-        <v>1428</v>
-      </c>
-      <c r="I52" s="19">
-        <v>-1742</v>
-      </c>
-      <c r="J52" s="19">
-        <v>245</v>
-      </c>
-      <c r="K52" s="19">
-        <v>1416</v>
-      </c>
-      <c r="L52" s="19">
-        <v>1595</v>
-      </c>
-      <c r="M52" s="19">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-5901</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>7533</v>
+        <v>6238</v>
       </c>
       <c r="E53" s="15">
-        <v>5725</v>
+        <v>6483</v>
       </c>
       <c r="F53" s="15">
-        <v>10371</v>
+        <v>7899</v>
       </c>
       <c r="G53" s="15">
-        <v>12589</v>
+        <v>9494</v>
       </c>
       <c r="H53" s="15">
-        <v>6552</v>
-      </c>
-      <c r="I53" s="15">
-        <v>7980</v>
-      </c>
-      <c r="J53" s="15">
-        <v>6238</v>
-      </c>
-      <c r="K53" s="15">
-        <v>6483</v>
-      </c>
-      <c r="L53" s="15">
-        <v>7899</v>
-      </c>
-      <c r="M53" s="15">
-        <v>9494</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
@@ -2437,95 +1720,50 @@
       <c r="H54" s="11">
         <v>0</v>
       </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>5725</v>
+        <v>6483</v>
       </c>
       <c r="E55" s="17">
-        <v>10371</v>
+        <v>7899</v>
       </c>
       <c r="F55" s="17">
-        <v>12589</v>
+        <v>9494</v>
       </c>
       <c r="G55" s="17">
-        <v>6552</v>
+        <v>10481</v>
       </c>
       <c r="H55" s="17">
-        <v>7980</v>
-      </c>
-      <c r="I55" s="17">
-        <v>6238</v>
-      </c>
-      <c r="J55" s="17">
-        <v>6483</v>
-      </c>
-      <c r="K55" s="17">
-        <v>7899</v>
-      </c>
-      <c r="L55" s="17">
-        <v>9494</v>
-      </c>
-      <c r="M55" s="17">
-        <v>10481</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>50463</v>
+        <v>0</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>3000000</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2533,11 +1771,6 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ghaza/ghegorji/cashflow/quarterly.xlsx
+++ b/database/industries/ghaza/ghegorji/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegorji\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegorji\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC92D39-EF0C-4394-B9A3-CECE863EB737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49441054-070E-47EB-80E8-B83900CA21AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-12 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-25 (2)</t>
+  </si>
+  <si>
+    <t>1401-03-12 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-26 (4)</t>
   </si>
   <si>
     <t>1401-10-29 (2)</t>
@@ -692,20 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +745,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +761,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +777,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +791,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +807,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +823,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +837,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +863,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +923,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,31 +939,51 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>232064</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-1739</v>
+      </c>
+      <c r="F12" s="15">
+        <v>30870</v>
+      </c>
+      <c r="G12" s="15">
+        <v>44067</v>
+      </c>
+      <c r="H12" s="15">
+        <v>54666</v>
+      </c>
+      <c r="I12" s="15">
         <v>43172</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>122910</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>93743</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>-75742</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>68106</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
@@ -874,36 +996,66 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
+        <v>-730</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-9052</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>-944</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>232064</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-1739</v>
+      </c>
+      <c r="F14" s="17">
+        <v>30870</v>
+      </c>
+      <c r="G14" s="17">
+        <v>43337</v>
+      </c>
+      <c r="H14" s="17">
+        <v>45614</v>
+      </c>
+      <c r="I14" s="17">
         <v>43172</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>122910</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>93743</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>-76686</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>68106</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,52 +1063,87 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>4919</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <v>32571</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>69042</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-7201</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-256874</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-12536</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-69922</v>
+      </c>
+      <c r="I17" s="11">
         <v>-22325</v>
       </c>
-      <c r="E17" s="11">
+      <c r="J17" s="11">
         <v>-304221</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-7676</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-29321</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-11940</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -974,10 +1161,25 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -995,10 +1197,25 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1008,18 +1225,33 @@
         <v>0</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
+        <v>-326</v>
       </c>
       <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
         <v>-2379</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1037,10 +1269,25 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,10 +1305,25 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1079,10 +1341,25 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1092,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="15">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -1100,52 +1377,97 @@
       <c r="H24" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>70806</v>
+      </c>
+      <c r="E25" s="11">
+        <v>-102227</v>
+      </c>
+      <c r="F25" s="11">
+        <v>620077</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>46575</v>
+      </c>
+      <c r="I25" s="11">
         <v>-46575</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>617638</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
         <v>14665</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-88527</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-342788</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-31711</v>
+      </c>
+      <c r="H26" s="15">
+        <v>-34109</v>
+      </c>
+      <c r="I26" s="15">
         <v>9000</v>
       </c>
-      <c r="E26" s="15">
+      <c r="J26" s="15">
         <v>-402892</v>
       </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1485,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1521,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,94 +1557,169 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>3577</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>-3577</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
         <v>50978</v>
       </c>
-      <c r="E30" s="15">
+      <c r="J30" s="15">
         <v>-50978</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>0</v>
+        <v>-170125</v>
       </c>
       <c r="E31" s="11">
+        <v>196345</v>
+      </c>
+      <c r="F31" s="11">
+        <v>-189194</v>
+      </c>
+      <c r="G31" s="11">
+        <v>24538</v>
+      </c>
+      <c r="H31" s="11">
+        <v>-24361</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
         <v>2599</v>
       </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
         <v>1569</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-26700</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-1610</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-172717</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-19709</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-76898</v>
+      </c>
+      <c r="I32" s="17">
         <v>-8922</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-105283</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-7676</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>-15466</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>-11940</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>205364</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-3349</v>
+      </c>
+      <c r="F33" s="19">
+        <v>-141847</v>
+      </c>
+      <c r="G33" s="19">
+        <v>23628</v>
+      </c>
+      <c r="H33" s="19">
+        <v>-31284</v>
+      </c>
+      <c r="I33" s="19">
         <v>34250</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>17627</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>86067</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>-92152</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>56166</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,20 +1727,25 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>0</v>
+        <v>4538</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -1321,31 +1753,61 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1363,10 +1825,25 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1384,73 +1861,133 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
         <v>0</v>
       </c>
       <c r="E39" s="15">
+        <v>21000</v>
+      </c>
+      <c r="F39" s="15">
+        <v>159828</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>62554</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
         <v>114002</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
         <v>98440</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>14430</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-195148</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-308</v>
+      </c>
+      <c r="G40" s="11">
         <v>-20000</v>
       </c>
-      <c r="E40" s="11">
+      <c r="H40" s="11">
+        <v>-7718</v>
+      </c>
+      <c r="I40" s="11">
+        <v>-20000</v>
+      </c>
+      <c r="J40" s="11">
         <v>-76566</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>-75000</v>
       </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
         <v>-65300</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-9020</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-91</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-1844</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-200</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-2472</v>
+      </c>
+      <c r="I41" s="15">
         <v>-34475</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>28772</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>-4087</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>-1587</v>
       </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +2005,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2041,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2077,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2113,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2149,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2185,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2221,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,94 +2257,169 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-1088</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-15343</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-21865</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-2000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-22822</v>
+      </c>
+      <c r="I50" s="11">
         <v>20470</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>-82419</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-5385</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>-3714</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-11197</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-198324</v>
+      </c>
+      <c r="E51" s="17">
+        <v>5567</v>
+      </c>
+      <c r="F51" s="17">
+        <v>135810</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-22200</v>
+      </c>
+      <c r="H51" s="17">
+        <v>29542</v>
+      </c>
+      <c r="I51" s="17">
         <v>-34005</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-16211</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>-84472</v>
       </c>
-      <c r="G51" s="17">
+      <c r="L51" s="17">
         <v>93139</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-62067</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>4646</v>
+      </c>
+      <c r="E52" s="19">
+        <v>2218</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-6037</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1428</v>
+      </c>
+      <c r="H52" s="19">
+        <v>-1742</v>
+      </c>
+      <c r="I52" s="19">
         <v>245</v>
       </c>
-      <c r="E52" s="19">
+      <c r="J52" s="19">
         <v>1416</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>1595</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>987</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>-5901</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>5725</v>
+      </c>
+      <c r="E53" s="15">
+        <v>10371</v>
+      </c>
+      <c r="F53" s="15">
+        <v>12589</v>
+      </c>
+      <c r="G53" s="15">
+        <v>6552</v>
+      </c>
+      <c r="H53" s="15">
+        <v>7980</v>
+      </c>
+      <c r="I53" s="15">
         <v>6238</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>6483</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>7899</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>9494</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>10481</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
@@ -1720,50 +2437,95 @@
       <c r="H54" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>10371</v>
+      </c>
+      <c r="E55" s="17">
+        <v>12589</v>
+      </c>
+      <c r="F55" s="17">
+        <v>6552</v>
+      </c>
+      <c r="G55" s="17">
+        <v>7980</v>
+      </c>
+      <c r="H55" s="17">
+        <v>6238</v>
+      </c>
+      <c r="I55" s="17">
         <v>6483</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>7899</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>9494</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>10481</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>4580</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>50463</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
         <v>3000000</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2533,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
